--- a/ThesisScalingTables.xlsx
+++ b/ThesisScalingTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ck21395_bristol_ac_uk/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="888" documentId="8_{1A6F2D15-5E7D-4E6C-9F4C-5FF994FF6D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32E93D28-3FEC-4C59-ABC4-4A1E2F085447}"/>
+  <xr:revisionPtr revIDLastSave="941" documentId="8_{1A6F2D15-5E7D-4E6C-9F4C-5FF994FF6D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB425419-A304-4F4B-8CC5-35F94D029CE9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="10" xr2:uid="{D0A3FDA3-C3F6-4592-AE8C-7645495316AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="10" xr2:uid="{D0A3FDA3-C3F6-4592-AE8C-7645495316AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2mode comparison" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,14 @@
     <sheet name="Fidelity comparisons" sheetId="3" r:id="rId3"/>
     <sheet name="Parameterisation runtimes" sheetId="4" r:id="rId4"/>
     <sheet name="Custom step runtimes" sheetId="10" r:id="rId5"/>
-    <sheet name="2modeNCsummary" sheetId="5" r:id="rId6"/>
-    <sheet name="3modeNCsummary" sheetId="6" r:id="rId7"/>
-    <sheet name="2modeCsummary" sheetId="7" r:id="rId8"/>
+    <sheet name="2modeCsummary" sheetId="7" r:id="rId6"/>
+    <sheet name="2modeNCsummary" sheetId="5" r:id="rId7"/>
+    <sheet name="2modecomp" sheetId="13" r:id="rId8"/>
     <sheet name="3modeCsummary" sheetId="8" r:id="rId9"/>
-    <sheet name="MZIcurvefit_exc" sheetId="11" r:id="rId10"/>
-    <sheet name="MZIcurvefit_inc" sheetId="12" r:id="rId11"/>
+    <sheet name="3modeNCsummary" sheetId="6" r:id="rId10"/>
+    <sheet name="3modecomp" sheetId="14" r:id="rId11"/>
+    <sheet name="MZIcurvefit_exc" sheetId="11" r:id="rId12"/>
+    <sheet name="MZIcurvefit_inc" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -260,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="97">
   <si>
     <t>Number</t>
   </si>
@@ -536,6 +538,21 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>2modeC</t>
+  </si>
+  <si>
+    <t>2modeNC</t>
+  </si>
+  <si>
+    <t>3modeC</t>
+  </si>
+  <si>
+    <t>3modeNC</t>
+  </si>
+  <si>
+    <t>Parameters</t>
   </si>
 </sst>
 </file>
@@ -579,7 +596,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,6 +645,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="83">
     <border>
@@ -1767,7 +1796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1996,6 +2025,12 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2071,20 +2106,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2437,24 +2473,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="179"/>
-      <c r="B1" s="180"/>
-      <c r="C1" s="176" t="s">
+      <c r="A1" s="185"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="168" t="s">
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="170"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="176"/>
     </row>
     <row r="2" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -2501,7 +2537,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="177" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
@@ -2545,7 +2581,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="172"/>
+      <c r="A4" s="178"/>
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -2587,7 +2623,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="179" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5">
@@ -2631,7 +2667,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="172"/>
+      <c r="A6" s="178"/>
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -2673,7 +2709,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="180" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="6">
@@ -2717,7 +2753,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="175"/>
+      <c r="A8" s="181"/>
       <c r="B8" s="7">
         <v>2</v>
       </c>
@@ -2774,6 +2810,1099 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F31FC-CD4C-46A6-8F32-B797505D463F}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="156"/>
+      <c r="B1" s="156" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="156" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="156" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="156" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="156" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="156" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="156" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="156" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="156" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="156">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="C2" s="156">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D2" s="156">
+        <v>0.501</v>
+      </c>
+      <c r="E2" s="156">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="F2" s="156">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G2" s="156">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H2" s="156">
+        <v>7</v>
+      </c>
+      <c r="I2" s="156">
+        <v>28</v>
+      </c>
+      <c r="J2" s="156">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="156" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="156">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="C3" s="156">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D3" s="156">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="E3" s="156">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="F3" s="156">
+        <v>2E-3</v>
+      </c>
+      <c r="G3" s="156">
+        <v>1E-3</v>
+      </c>
+      <c r="H3" s="156">
+        <v>44</v>
+      </c>
+      <c r="I3" s="156">
+        <v>65</v>
+      </c>
+      <c r="J3" s="156">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="156" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="156">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="C4" s="156">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D4" s="156">
+        <v>0.502</v>
+      </c>
+      <c r="E4" s="156">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="F4" s="156">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G4" s="156">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H4" s="156">
+        <v>12</v>
+      </c>
+      <c r="I4" s="156">
+        <v>48</v>
+      </c>
+      <c r="J4" s="156">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="156" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="156">
+        <v>0.52</v>
+      </c>
+      <c r="C5" s="156">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="156">
+        <v>0.501</v>
+      </c>
+      <c r="E5" s="156">
+        <v>0.54</v>
+      </c>
+      <c r="F5" s="156">
+        <v>2E-3</v>
+      </c>
+      <c r="G5" s="156">
+        <v>1E-3</v>
+      </c>
+      <c r="H5" s="156">
+        <v>31</v>
+      </c>
+      <c r="I5" s="156">
+        <v>36</v>
+      </c>
+      <c r="J5" s="156">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="156" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="156">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="C6" s="156">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D6" s="156">
+        <v>0.505</v>
+      </c>
+      <c r="E6" s="156">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="F6" s="156">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="156">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="156">
+        <v>5</v>
+      </c>
+      <c r="I6" s="156">
+        <v>28</v>
+      </c>
+      <c r="J6" s="156">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="156" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="156">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="C7" s="156">
+        <v>0.01</v>
+      </c>
+      <c r="D7" s="156">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="156">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="F7" s="156">
+        <v>2E-3</v>
+      </c>
+      <c r="G7" s="156">
+        <v>1E-3</v>
+      </c>
+      <c r="H7" s="156">
+        <v>49</v>
+      </c>
+      <c r="I7" s="156">
+        <v>37</v>
+      </c>
+      <c r="J7" s="156">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="156" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="156">
+        <v>1E-3</v>
+      </c>
+      <c r="C8" s="156">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D8" s="156">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="E8" s="156">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F8" s="156">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G8" s="156">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H8" s="156">
+        <v>12</v>
+      </c>
+      <c r="I8" s="156">
+        <v>36</v>
+      </c>
+      <c r="J8" s="156">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="156" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="156">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="C9" s="156">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D9" s="156">
+        <v>-0.03</v>
+      </c>
+      <c r="E9" s="156">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F9" s="156">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="156">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="156">
+        <v>14</v>
+      </c>
+      <c r="I9" s="156">
+        <v>69</v>
+      </c>
+      <c r="J9" s="156">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="156" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="156">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C10" s="156">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D10" s="156">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="E10" s="156">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F10" s="156">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G10" s="156">
+        <v>2E-3</v>
+      </c>
+      <c r="H10" s="156">
+        <v>33</v>
+      </c>
+      <c r="I10" s="156">
+        <v>44</v>
+      </c>
+      <c r="J10" s="156">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="156" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="156">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="156">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D11" s="156">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="E11" s="156">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F11" s="156">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G11" s="156">
+        <v>2E-3</v>
+      </c>
+      <c r="H11" s="156">
+        <v>23</v>
+      </c>
+      <c r="I11" s="156">
+        <v>70</v>
+      </c>
+      <c r="J11" s="156">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="156" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="156">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C12" s="156">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D12" s="156">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="E12" s="156">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F12" s="156">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G12" s="156">
+        <v>2E-3</v>
+      </c>
+      <c r="H12" s="156">
+        <v>23</v>
+      </c>
+      <c r="I12" s="156">
+        <v>32</v>
+      </c>
+      <c r="J12" s="156">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="156">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="C13" s="156">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D13" s="156">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="E13" s="156">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F13" s="156">
+        <v>2E-3</v>
+      </c>
+      <c r="G13" s="156">
+        <v>1E-3</v>
+      </c>
+      <c r="H13" s="156">
+        <v>59</v>
+      </c>
+      <c r="I13" s="156">
+        <v>60</v>
+      </c>
+      <c r="J13" s="156">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="156" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="156">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="C14" s="156">
+        <v>0.16</v>
+      </c>
+      <c r="D14" s="156">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="E14" s="156">
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="F14" s="156">
+        <v>0.113</v>
+      </c>
+      <c r="G14" s="156">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H14" s="156">
+        <v>3</v>
+      </c>
+      <c r="I14" s="156">
+        <v>13</v>
+      </c>
+      <c r="J14" s="156">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="156" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="156">
+        <v>0.217</v>
+      </c>
+      <c r="C15" s="156">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="D15" s="156">
+        <v>-0.56599999999999995</v>
+      </c>
+      <c r="E15" s="156">
+        <v>1.49</v>
+      </c>
+      <c r="F15" s="156">
+        <v>0.309</v>
+      </c>
+      <c r="G15" s="156">
+        <v>0.24</v>
+      </c>
+      <c r="H15" s="156">
+        <v>4</v>
+      </c>
+      <c r="I15" s="156">
+        <v>16</v>
+      </c>
+      <c r="J15" s="156">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="156" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="156">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="C16" s="156">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D16" s="156">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E16" s="156">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="F16" s="156">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G16" s="156">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H16" s="156">
+        <v>3</v>
+      </c>
+      <c r="I16" s="156">
+        <v>13</v>
+      </c>
+      <c r="J16" s="156">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="156" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="156">
+        <v>0.49</v>
+      </c>
+      <c r="C17" s="156">
+        <v>0.628</v>
+      </c>
+      <c r="D17" s="156">
+        <v>-0.182</v>
+      </c>
+      <c r="E17" s="156">
+        <v>1.478</v>
+      </c>
+      <c r="F17" s="156">
+        <v>0.435</v>
+      </c>
+      <c r="G17" s="156">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="H17" s="156">
+        <v>2</v>
+      </c>
+      <c r="I17" s="156">
+        <v>21</v>
+      </c>
+      <c r="J17" s="156">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="156" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="156">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="C18" s="156">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D18" s="156">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="E18" s="156">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="F18" s="156">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G18" s="156">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H18" s="156">
+        <v>3</v>
+      </c>
+      <c r="I18" s="156">
+        <v>12</v>
+      </c>
+      <c r="J18" s="156">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="156" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="156">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="C19" s="156">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="D19" s="156">
+        <v>-0.69099999999999995</v>
+      </c>
+      <c r="E19" s="156">
+        <v>1.466</v>
+      </c>
+      <c r="F19" s="156">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="G19" s="156">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="H19" s="156">
+        <v>7</v>
+      </c>
+      <c r="I19" s="156">
+        <v>37</v>
+      </c>
+      <c r="J19" s="156">
+        <v>1.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4A6D55-52F2-47E4-B305-13BD49AD60D5}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="156"/>
+      <c r="B1" s="199" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="202" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="168" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="169" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="169" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="169" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="203" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="203" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="203" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="168" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="172">
+        <v>93</v>
+      </c>
+      <c r="C3" s="172">
+        <v>112</v>
+      </c>
+      <c r="D3" s="201">
+        <v>1.03</v>
+      </c>
+      <c r="E3" s="203">
+        <v>7</v>
+      </c>
+      <c r="F3" s="203">
+        <v>28</v>
+      </c>
+      <c r="G3" s="203">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="168" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="172">
+        <v>64</v>
+      </c>
+      <c r="C4" s="172">
+        <v>218</v>
+      </c>
+      <c r="D4" s="201">
+        <v>1.05</v>
+      </c>
+      <c r="E4" s="203">
+        <v>44</v>
+      </c>
+      <c r="F4" s="203">
+        <v>65</v>
+      </c>
+      <c r="G4" s="203">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="168" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="172">
+        <v>55</v>
+      </c>
+      <c r="C5" s="172">
+        <v>133</v>
+      </c>
+      <c r="D5" s="201">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E5" s="203">
+        <v>12</v>
+      </c>
+      <c r="F5" s="203">
+        <v>48</v>
+      </c>
+      <c r="G5" s="203">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="168" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="172">
+        <v>56</v>
+      </c>
+      <c r="C6" s="172">
+        <v>178</v>
+      </c>
+      <c r="D6" s="201">
+        <v>1.04</v>
+      </c>
+      <c r="E6" s="203">
+        <v>31</v>
+      </c>
+      <c r="F6" s="203">
+        <v>36</v>
+      </c>
+      <c r="G6" s="203">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="168" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="172">
+        <v>40</v>
+      </c>
+      <c r="C7" s="172">
+        <v>182</v>
+      </c>
+      <c r="D7" s="201">
+        <v>1.06</v>
+      </c>
+      <c r="E7" s="203">
+        <v>5</v>
+      </c>
+      <c r="F7" s="203">
+        <v>28</v>
+      </c>
+      <c r="G7" s="203">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="172">
+        <v>36</v>
+      </c>
+      <c r="C8" s="172">
+        <v>69</v>
+      </c>
+      <c r="D8" s="201">
+        <v>1.05</v>
+      </c>
+      <c r="E8" s="203">
+        <v>49</v>
+      </c>
+      <c r="F8" s="203">
+        <v>37</v>
+      </c>
+      <c r="G8" s="203">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="168" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="172">
+        <v>68</v>
+      </c>
+      <c r="C9" s="172">
+        <v>76</v>
+      </c>
+      <c r="D9" s="201">
+        <v>1.03</v>
+      </c>
+      <c r="E9" s="203">
+        <v>12</v>
+      </c>
+      <c r="F9" s="203">
+        <v>36</v>
+      </c>
+      <c r="G9" s="203">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="172">
+        <v>9</v>
+      </c>
+      <c r="C10" s="172">
+        <v>30</v>
+      </c>
+      <c r="D10" s="201">
+        <v>1.17</v>
+      </c>
+      <c r="E10" s="203">
+        <v>14</v>
+      </c>
+      <c r="F10" s="203">
+        <v>69</v>
+      </c>
+      <c r="G10" s="203">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="168" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="172">
+        <v>53</v>
+      </c>
+      <c r="C11" s="172">
+        <v>57</v>
+      </c>
+      <c r="D11" s="201">
+        <v>1.08</v>
+      </c>
+      <c r="E11" s="203">
+        <v>33</v>
+      </c>
+      <c r="F11" s="203">
+        <v>44</v>
+      </c>
+      <c r="G11" s="203">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="168" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="172">
+        <v>103</v>
+      </c>
+      <c r="C12" s="172">
+        <v>439</v>
+      </c>
+      <c r="D12" s="201">
+        <v>1.05</v>
+      </c>
+      <c r="E12" s="203">
+        <v>23</v>
+      </c>
+      <c r="F12" s="203">
+        <v>70</v>
+      </c>
+      <c r="G12" s="203">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="168" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="172">
+        <v>78</v>
+      </c>
+      <c r="C13" s="172">
+        <v>119</v>
+      </c>
+      <c r="D13" s="201">
+        <v>1.02</v>
+      </c>
+      <c r="E13" s="203">
+        <v>23</v>
+      </c>
+      <c r="F13" s="203">
+        <v>32</v>
+      </c>
+      <c r="G13" s="203">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="168" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="172">
+        <v>124</v>
+      </c>
+      <c r="C14" s="172">
+        <v>308</v>
+      </c>
+      <c r="D14" s="201">
+        <v>1.01</v>
+      </c>
+      <c r="E14" s="203">
+        <v>59</v>
+      </c>
+      <c r="F14" s="203">
+        <v>60</v>
+      </c>
+      <c r="G14" s="203">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="168" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="172">
+        <v>3</v>
+      </c>
+      <c r="C15" s="172">
+        <v>13</v>
+      </c>
+      <c r="D15" s="201">
+        <v>1.86</v>
+      </c>
+      <c r="E15" s="203">
+        <v>3</v>
+      </c>
+      <c r="F15" s="203">
+        <v>13</v>
+      </c>
+      <c r="G15" s="203">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="168" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="172">
+        <v>11</v>
+      </c>
+      <c r="C16" s="172">
+        <v>18</v>
+      </c>
+      <c r="D16" s="201">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E16" s="203">
+        <v>4</v>
+      </c>
+      <c r="F16" s="203">
+        <v>16</v>
+      </c>
+      <c r="G16" s="203">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="172">
+        <v>3</v>
+      </c>
+      <c r="C17" s="172">
+        <v>15</v>
+      </c>
+      <c r="D17" s="201">
+        <v>1.93</v>
+      </c>
+      <c r="E17" s="203">
+        <v>3</v>
+      </c>
+      <c r="F17" s="203">
+        <v>13</v>
+      </c>
+      <c r="G17" s="203">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="168" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="172">
+        <v>3</v>
+      </c>
+      <c r="C18" s="172">
+        <v>17</v>
+      </c>
+      <c r="D18" s="201">
+        <v>1.91</v>
+      </c>
+      <c r="E18" s="203">
+        <v>2</v>
+      </c>
+      <c r="F18" s="203">
+        <v>21</v>
+      </c>
+      <c r="G18" s="203">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="168" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="172">
+        <v>3</v>
+      </c>
+      <c r="C19" s="172">
+        <v>22</v>
+      </c>
+      <c r="D19" s="201">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E19" s="203">
+        <v>3</v>
+      </c>
+      <c r="F19" s="203">
+        <v>12</v>
+      </c>
+      <c r="G19" s="203">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="168" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="172">
+        <v>29</v>
+      </c>
+      <c r="C20" s="172">
+        <v>80</v>
+      </c>
+      <c r="D20" s="201">
+        <v>1.07</v>
+      </c>
+      <c r="E20" s="203">
+        <v>7</v>
+      </c>
+      <c r="F20" s="203">
+        <v>37</v>
+      </c>
+      <c r="G20" s="203">
+        <v>1.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDFDC8F-4CC7-4354-95FA-EEB64336611E}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -2787,130 +3916,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="198"/>
-      <c r="B1" s="194" t="s">
+      <c r="A1" s="171"/>
+      <c r="B1" s="199" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="196" t="s">
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="200" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="168" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="169" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="195" t="s">
+      <c r="C2" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="195" t="s">
+      <c r="D2" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="197" t="s">
+      <c r="E2" s="170" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="197" t="s">
+      <c r="F2" s="170" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="197" t="s">
+      <c r="G2" s="170" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="201">
+      <c r="B3" s="172">
         <v>3</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="172">
         <v>59</v>
       </c>
-      <c r="D3" s="195">
+      <c r="D3" s="169">
         <v>1.82</v>
       </c>
-      <c r="E3" s="202">
+      <c r="E3" s="173">
         <v>3</v>
       </c>
-      <c r="F3" s="202">
+      <c r="F3" s="173">
         <v>54</v>
       </c>
-      <c r="G3" s="197">
+      <c r="G3" s="170">
         <v>1.83</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="168" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="201">
+      <c r="B4" s="172">
         <v>3</v>
       </c>
-      <c r="C4" s="201">
+      <c r="C4" s="172">
         <v>56</v>
       </c>
-      <c r="D4" s="195">
+      <c r="D4" s="169">
         <v>1.83</v>
       </c>
-      <c r="E4" s="202">
+      <c r="E4" s="173">
         <v>3</v>
       </c>
-      <c r="F4" s="202">
+      <c r="F4" s="173">
         <v>56</v>
       </c>
-      <c r="G4" s="197">
+      <c r="G4" s="170">
         <v>1.83</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="193" t="s">
+      <c r="A5" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="201">
+      <c r="B5" s="172">
         <v>3</v>
       </c>
-      <c r="C5" s="201">
+      <c r="C5" s="172">
         <v>56</v>
       </c>
-      <c r="D5" s="195">
+      <c r="D5" s="169">
         <v>1.83</v>
       </c>
-      <c r="E5" s="202">
+      <c r="E5" s="173">
         <v>3</v>
       </c>
-      <c r="F5" s="202">
+      <c r="F5" s="173">
         <v>50</v>
       </c>
-      <c r="G5" s="197">
+      <c r="G5" s="170">
         <v>1.83</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="193" t="s">
+      <c r="A6" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="201">
+      <c r="B6" s="172">
         <v>3</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="172">
         <v>56</v>
       </c>
-      <c r="D6" s="195">
+      <c r="D6" s="169">
         <v>1.83</v>
       </c>
-      <c r="E6" s="202">
+      <c r="E6" s="173">
         <v>3</v>
       </c>
-      <c r="F6" s="202">
+      <c r="F6" s="173">
         <v>56</v>
       </c>
-      <c r="G6" s="197">
+      <c r="G6" s="170">
         <v>1.83</v>
       </c>
     </row>
@@ -2923,11 +4052,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777C715A-7C4D-47A9-988B-E9FCA9131675}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
@@ -2937,199 +4066,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="199"/>
-      <c r="B1" s="194" t="s">
+      <c r="A1" s="156"/>
+      <c r="B1" s="199" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="196" t="s">
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="200" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="168" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="169" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="195" t="s">
+      <c r="C2" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="195" t="s">
+      <c r="D2" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="197" t="s">
+      <c r="E2" s="170" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="197" t="s">
+      <c r="F2" s="170" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="197" t="s">
+      <c r="G2" s="170" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="201">
+      <c r="B3" s="172">
         <v>3</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="172">
         <v>72</v>
       </c>
-      <c r="D3" s="195">
+      <c r="D3" s="169">
         <v>1.83</v>
       </c>
-      <c r="E3" s="202">
+      <c r="E3" s="173">
         <v>3</v>
       </c>
-      <c r="F3" s="202">
+      <c r="F3" s="173">
         <v>56</v>
       </c>
-      <c r="G3" s="197">
+      <c r="G3" s="170">
         <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="168" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="201">
+      <c r="B4" s="172">
         <v>3</v>
       </c>
-      <c r="C4" s="201">
+      <c r="C4" s="172">
         <v>56</v>
       </c>
-      <c r="D4" s="195">
+      <c r="D4" s="169">
         <v>1.83</v>
       </c>
-      <c r="E4" s="202">
+      <c r="E4" s="173">
         <v>3</v>
       </c>
-      <c r="F4" s="202">
+      <c r="F4" s="173">
         <v>53</v>
       </c>
-      <c r="G4" s="197">
+      <c r="G4" s="170">
         <v>1.83</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="193" t="s">
+      <c r="A5" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="201">
+      <c r="B5" s="172">
         <v>3</v>
       </c>
-      <c r="C5" s="201">
+      <c r="C5" s="172">
         <v>54</v>
       </c>
-      <c r="D5" s="195">
+      <c r="D5" s="169">
         <v>1.83</v>
       </c>
-      <c r="E5" s="202">
+      <c r="E5" s="173">
         <v>3</v>
       </c>
-      <c r="F5" s="202">
+      <c r="F5" s="173">
         <v>53</v>
       </c>
-      <c r="G5" s="197">
+      <c r="G5" s="170">
         <v>1.83</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="193" t="s">
+      <c r="A6" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="201">
+      <c r="B6" s="172">
         <v>3</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="172">
         <v>59</v>
       </c>
-      <c r="D6" s="195">
+      <c r="D6" s="169">
         <v>1.94</v>
       </c>
-      <c r="E6" s="202">
+      <c r="E6" s="173">
         <v>6</v>
       </c>
-      <c r="F6" s="202">
+      <c r="F6" s="173">
         <v>55</v>
       </c>
-      <c r="G6" s="197">
+      <c r="G6" s="170">
         <v>1.27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="193" t="s">
+      <c r="A7" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="201">
+      <c r="B7" s="172">
         <v>4245</v>
       </c>
-      <c r="C7" s="201">
+      <c r="C7" s="172">
         <v>3384</v>
       </c>
-      <c r="D7" s="195">
+      <c r="D7" s="169">
         <v>1</v>
       </c>
-      <c r="E7" s="202">
+      <c r="E7" s="173">
         <v>15</v>
       </c>
-      <c r="F7" s="202">
+      <c r="F7" s="173">
         <v>253</v>
       </c>
-      <c r="G7" s="197">
+      <c r="G7" s="170">
         <v>1.83</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="193" t="s">
+      <c r="A8" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="201">
+      <c r="B8" s="172">
         <v>3</v>
       </c>
-      <c r="C8" s="201">
+      <c r="C8" s="172">
         <v>59</v>
       </c>
-      <c r="D8" s="195">
+      <c r="D8" s="169">
         <v>1.34</v>
       </c>
-      <c r="E8" s="202">
+      <c r="E8" s="173">
         <v>3</v>
       </c>
-      <c r="F8" s="202">
+      <c r="F8" s="173">
         <v>52</v>
       </c>
-      <c r="G8" s="197">
+      <c r="G8" s="170">
         <v>1.83</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="193" t="s">
+      <c r="A9" s="168" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="201">
+      <c r="B9" s="172">
         <v>3</v>
       </c>
-      <c r="C9" s="201">
+      <c r="C9" s="172">
         <v>52</v>
       </c>
-      <c r="D9" s="195">
+      <c r="D9" s="169">
         <v>1.83</v>
       </c>
-      <c r="E9" s="202">
+      <c r="E9" s="173">
         <v>3</v>
       </c>
-      <c r="F9" s="202">
+      <c r="F9" s="173">
         <v>63</v>
       </c>
-      <c r="G9" s="197">
+      <c r="G9" s="170">
         <v>1.83</v>
       </c>
     </row>
@@ -3164,24 +4293,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="182"/>
-      <c r="B1" s="183"/>
-      <c r="C1" s="184" t="s">
+      <c r="A1" s="188"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="187" t="s">
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="189"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="195"/>
     </row>
     <row r="2" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
@@ -3228,7 +4357,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="177" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="26">
@@ -3272,7 +4401,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="181"/>
+      <c r="A4" s="187"/>
       <c r="B4" s="27">
         <v>2</v>
       </c>
@@ -3314,7 +4443,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="181"/>
+      <c r="A5" s="187"/>
       <c r="B5" s="27">
         <v>3</v>
       </c>
@@ -3356,7 +4485,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="181"/>
+      <c r="A6" s="187"/>
       <c r="B6" s="27">
         <v>4</v>
       </c>
@@ -3398,7 +4527,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="181"/>
+      <c r="A7" s="187"/>
       <c r="B7" s="27">
         <v>5</v>
       </c>
@@ -3441,7 +4570,7 @@
       <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="172"/>
+      <c r="A8" s="178"/>
       <c r="B8" s="37">
         <v>6</v>
       </c>
@@ -3483,7 +4612,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="173" t="s">
+      <c r="A9" s="179" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="38">
@@ -3527,7 +4656,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="181"/>
+      <c r="A10" s="187"/>
       <c r="B10" s="27">
         <v>2</v>
       </c>
@@ -3569,7 +4698,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="181"/>
+      <c r="A11" s="187"/>
       <c r="B11" s="27">
         <v>3</v>
       </c>
@@ -3611,7 +4740,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="181"/>
+      <c r="A12" s="187"/>
       <c r="B12" s="27">
         <v>4</v>
       </c>
@@ -3653,7 +4782,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="181"/>
+      <c r="A13" s="187"/>
       <c r="B13" s="27">
         <v>5</v>
       </c>
@@ -3695,7 +4824,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="172"/>
+      <c r="A14" s="178"/>
       <c r="B14" s="37">
         <v>6</v>
       </c>
@@ -3737,7 +4866,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="174" t="s">
+      <c r="A15" s="180" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="36">
@@ -3781,7 +4910,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="181"/>
+      <c r="A16" s="187"/>
       <c r="B16" s="27">
         <v>2</v>
       </c>
@@ -3823,7 +4952,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="181"/>
+      <c r="A17" s="187"/>
       <c r="B17" s="27">
         <v>3</v>
       </c>
@@ -3865,7 +4994,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="181"/>
+      <c r="A18" s="187"/>
       <c r="B18" s="27">
         <v>4</v>
       </c>
@@ -3907,7 +5036,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="181"/>
+      <c r="A19" s="187"/>
       <c r="B19" s="27">
         <v>5</v>
       </c>
@@ -3949,7 +5078,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="175"/>
+      <c r="A20" s="181"/>
       <c r="B20" s="28">
         <v>6</v>
       </c>
@@ -4104,18 +5233,18 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="192" t="s">
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="155">
@@ -4293,14 +5422,14 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="190">
+      <c r="A1" s="196">
         <v>2</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190">
+      <c r="B1" s="196"/>
+      <c r="C1" s="196">
         <v>3</v>
       </c>
-      <c r="D1" s="190"/>
+      <c r="D1" s="196"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="156" t="s">
@@ -4396,11 +5525,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBCD64C-8CB0-4F3E-A288-9459C3019314}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC00CD67-D288-4977-A8AA-BB6D1319A1DB}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J7"/>
+      <selection activeCell="H1" sqref="H1:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4440,28 +5569,28 @@
         <v>24</v>
       </c>
       <c r="B2" s="161">
-        <v>0.52300000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="161">
-        <v>1.4E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D2" s="161">
-        <v>0.5</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="E2" s="161">
-        <v>0.54600000000000004</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="F2" s="161">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G2" s="161">
         <v>0</v>
       </c>
       <c r="H2" s="162">
-        <v>13164</v>
+        <v>6032</v>
       </c>
       <c r="I2" s="162">
-        <v>6542</v>
+        <v>3263</v>
       </c>
       <c r="J2" s="163">
         <v>1</v>
@@ -4472,28 +5601,28 @@
         <v>29</v>
       </c>
       <c r="B3" s="161">
-        <v>0.52300000000000002</v>
+        <v>0.499</v>
       </c>
       <c r="C3" s="161">
-        <v>1.4E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D3" s="161">
-        <v>0.5</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="E3" s="161">
-        <v>0.54600000000000004</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="F3" s="161">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G3" s="161">
         <v>0</v>
       </c>
       <c r="H3" s="162">
-        <v>9427</v>
+        <v>6076</v>
       </c>
       <c r="I3" s="162">
-        <v>5505</v>
+        <v>4077</v>
       </c>
       <c r="J3" s="163">
         <v>1</v>
@@ -4510,10 +5639,10 @@
         <v>1.6E-2</v>
       </c>
       <c r="D4" s="161">
-        <v>-0.03</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="E4" s="161">
-        <v>3.1E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F4" s="161">
         <v>0</v>
@@ -4522,10 +5651,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="162">
-        <v>10027</v>
+        <v>6474</v>
       </c>
       <c r="I4" s="162">
-        <v>5767</v>
+        <v>6366</v>
       </c>
       <c r="J4" s="163">
         <v>1</v>
@@ -4545,7 +5674,7 @@
         <v>-0.03</v>
       </c>
       <c r="E5" s="161">
-        <v>2.9000000000000001E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="F5" s="161">
         <v>0</v>
@@ -4554,44 +5683,44 @@
         <v>0</v>
       </c>
       <c r="H5" s="162">
-        <v>13047</v>
+        <v>9247</v>
       </c>
       <c r="I5" s="162">
-        <v>5925</v>
+        <v>6700</v>
       </c>
       <c r="J5" s="163">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="164" t="s">
+      <c r="A6" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="165">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="C6" s="165">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D6" s="165">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="E6" s="165">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="F6" s="165">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G6" s="165">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H6" s="166">
+      <c r="B6" s="161">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="C6" s="161">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="D6" s="161">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="E6" s="161">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="F6" s="161">
+        <v>0.191</v>
+      </c>
+      <c r="G6" s="161">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H6" s="162">
         <v>3</v>
       </c>
-      <c r="I6" s="166">
-        <v>46</v>
-      </c>
-      <c r="J6" s="167">
+      <c r="I6" s="162">
+        <v>49</v>
+      </c>
+      <c r="J6" s="163">
         <v>1.83</v>
       </c>
     </row>
@@ -4600,28 +5729,28 @@
         <v>27</v>
       </c>
       <c r="B7" s="161">
-        <v>0.70799999999999996</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="C7" s="161">
-        <v>0.68300000000000005</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="D7" s="161">
-        <v>-0.59699999999999998</v>
+        <v>-0.67900000000000005</v>
       </c>
       <c r="E7" s="161">
-        <v>1.9810000000000001</v>
+        <v>1.927</v>
       </c>
       <c r="F7" s="161">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G7" s="161">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H7" s="162">
-        <v>9386</v>
+        <v>9467</v>
       </c>
       <c r="I7" s="162">
-        <v>7319</v>
+        <v>7400</v>
       </c>
       <c r="J7" s="163">
         <v>1</v>
@@ -4633,11 +5762,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F31FC-CD4C-46A6-8F32-B797505D463F}">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBCD64C-8CB0-4F3E-A288-9459C3019314}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="H2" sqref="H2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4676,576 +5805,192 @@
       <c r="A2" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="156">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="C2" s="156">
+      <c r="B2" s="161">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="C2" s="161">
         <v>1.4E-2</v>
       </c>
-      <c r="D2" s="156">
-        <v>0.501</v>
-      </c>
-      <c r="E2" s="156">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="F2" s="156">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G2" s="156">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H2" s="156">
-        <v>7</v>
-      </c>
-      <c r="I2" s="156">
-        <v>28</v>
-      </c>
-      <c r="J2" s="156">
-        <v>1.26</v>
+      <c r="D2" s="161">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="161">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="F2" s="161">
+        <v>0</v>
+      </c>
+      <c r="G2" s="161">
+        <v>0</v>
+      </c>
+      <c r="H2" s="162">
+        <v>13164</v>
+      </c>
+      <c r="I2" s="162">
+        <v>6542</v>
+      </c>
+      <c r="J2" s="163">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="156">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="C3" s="156">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D3" s="156">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="E3" s="156">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="F3" s="156">
-        <v>2E-3</v>
-      </c>
-      <c r="G3" s="156">
-        <v>1E-3</v>
-      </c>
-      <c r="H3" s="156">
-        <v>44</v>
-      </c>
-      <c r="I3" s="156">
-        <v>65</v>
-      </c>
-      <c r="J3" s="156">
-        <v>1.08</v>
+      <c r="B3" s="161">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="C3" s="161">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D3" s="161">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="161">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="F3" s="161">
+        <v>0</v>
+      </c>
+      <c r="G3" s="161">
+        <v>0</v>
+      </c>
+      <c r="H3" s="162">
+        <v>9427</v>
+      </c>
+      <c r="I3" s="162">
+        <v>5505</v>
+      </c>
+      <c r="J3" s="163">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="156" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="156">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="C4" s="156">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="D4" s="156">
-        <v>0.502</v>
-      </c>
-      <c r="E4" s="156">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="F4" s="156">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G4" s="156">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H4" s="156">
-        <v>12</v>
-      </c>
-      <c r="I4" s="156">
-        <v>48</v>
-      </c>
-      <c r="J4" s="156">
-        <v>1.3</v>
+        <v>25</v>
+      </c>
+      <c r="B4" s="161">
+        <v>0</v>
+      </c>
+      <c r="C4" s="161">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D4" s="161">
+        <v>-0.03</v>
+      </c>
+      <c r="E4" s="161">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F4" s="161">
+        <v>0</v>
+      </c>
+      <c r="G4" s="161">
+        <v>0</v>
+      </c>
+      <c r="H4" s="162">
+        <v>10027</v>
+      </c>
+      <c r="I4" s="162">
+        <v>5767</v>
+      </c>
+      <c r="J4" s="163">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="156" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="156">
-        <v>0.52</v>
-      </c>
-      <c r="C5" s="156">
-        <v>0.01</v>
-      </c>
-      <c r="D5" s="156">
-        <v>0.501</v>
-      </c>
-      <c r="E5" s="156">
-        <v>0.54</v>
-      </c>
-      <c r="F5" s="156">
-        <v>2E-3</v>
-      </c>
-      <c r="G5" s="156">
-        <v>1E-3</v>
-      </c>
-      <c r="H5" s="156">
-        <v>31</v>
-      </c>
-      <c r="I5" s="156">
-        <v>36</v>
-      </c>
-      <c r="J5" s="156">
-        <v>1.24</v>
+        <v>28</v>
+      </c>
+      <c r="B5" s="161">
+        <v>0</v>
+      </c>
+      <c r="C5" s="161">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D5" s="161">
+        <v>-0.03</v>
+      </c>
+      <c r="E5" s="161">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F5" s="161">
+        <v>0</v>
+      </c>
+      <c r="G5" s="161">
+        <v>0</v>
+      </c>
+      <c r="H5" s="162">
+        <v>13047</v>
+      </c>
+      <c r="I5" s="162">
+        <v>5925</v>
+      </c>
+      <c r="J5" s="163">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="156" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="156">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="C6" s="156">
-        <v>1.4E-2</v>
-      </c>
-      <c r="D6" s="156">
-        <v>0.505</v>
-      </c>
-      <c r="E6" s="156">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="F6" s="156">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G6" s="156">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H6" s="156">
-        <v>5</v>
-      </c>
-      <c r="I6" s="156">
-        <v>28</v>
-      </c>
-      <c r="J6" s="156">
-        <v>1.42</v>
+      <c r="A6" s="164" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="165">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C6" s="165">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="165">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E6" s="165">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="F6" s="165">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="165">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="166">
+        <v>3</v>
+      </c>
+      <c r="I6" s="166">
+        <v>46</v>
+      </c>
+      <c r="J6" s="167">
+        <v>1.83</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="156" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="156">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="C7" s="156">
-        <v>0.01</v>
-      </c>
-      <c r="D7" s="156">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="156">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="F7" s="156">
-        <v>2E-3</v>
-      </c>
-      <c r="G7" s="156">
-        <v>1E-3</v>
-      </c>
-      <c r="H7" s="156">
-        <v>49</v>
-      </c>
-      <c r="I7" s="156">
-        <v>37</v>
-      </c>
-      <c r="J7" s="156">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="156" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="156">
-        <v>1E-3</v>
-      </c>
-      <c r="C8" s="156">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D8" s="156">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-      <c r="E8" s="156">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="F8" s="156">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G8" s="156">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H8" s="156">
-        <v>12</v>
-      </c>
-      <c r="I8" s="156">
-        <v>36</v>
-      </c>
-      <c r="J8" s="156">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="156" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="156">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="C9" s="156">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D9" s="156">
-        <v>-0.03</v>
-      </c>
-      <c r="E9" s="156">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F9" s="156">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G9" s="156">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H9" s="156">
-        <v>14</v>
-      </c>
-      <c r="I9" s="156">
-        <v>69</v>
-      </c>
-      <c r="J9" s="156">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="156" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="156">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C10" s="156">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D10" s="156">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-      <c r="E10" s="156">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="F10" s="156">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G10" s="156">
-        <v>2E-3</v>
-      </c>
-      <c r="H10" s="156">
-        <v>33</v>
-      </c>
-      <c r="I10" s="156">
-        <v>44</v>
-      </c>
-      <c r="J10" s="156">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="156" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="156">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="C11" s="156">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D11" s="156">
-        <v>-2.9000000000000001E-2</v>
-      </c>
-      <c r="E11" s="156">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="F11" s="156">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G11" s="156">
-        <v>2E-3</v>
-      </c>
-      <c r="H11" s="156">
-        <v>23</v>
-      </c>
-      <c r="I11" s="156">
-        <v>70</v>
-      </c>
-      <c r="J11" s="156">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="156" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="156">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C12" s="156">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D12" s="156">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-      <c r="E12" s="156">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="F12" s="156">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G12" s="156">
-        <v>2E-3</v>
-      </c>
-      <c r="H12" s="156">
-        <v>23</v>
-      </c>
-      <c r="I12" s="156">
-        <v>32</v>
-      </c>
-      <c r="J12" s="156">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="156" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="156">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="C13" s="156">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="D13" s="156">
-        <v>-2.3E-2</v>
-      </c>
-      <c r="E13" s="156">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F13" s="156">
-        <v>2E-3</v>
-      </c>
-      <c r="G13" s="156">
-        <v>1E-3</v>
-      </c>
-      <c r="H13" s="156">
-        <v>59</v>
-      </c>
-      <c r="I13" s="156">
-        <v>60</v>
-      </c>
-      <c r="J13" s="156">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="156" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="156">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="C14" s="156">
-        <v>0.16</v>
-      </c>
-      <c r="D14" s="156">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="E14" s="156">
-        <v>1.0860000000000001</v>
-      </c>
-      <c r="F14" s="156">
-        <v>0.113</v>
-      </c>
-      <c r="G14" s="156">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="H14" s="156">
-        <v>3</v>
-      </c>
-      <c r="I14" s="156">
-        <v>13</v>
-      </c>
-      <c r="J14" s="156">
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="156">
-        <v>0.217</v>
-      </c>
-      <c r="C15" s="156">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="D15" s="156">
-        <v>-0.56599999999999995</v>
-      </c>
-      <c r="E15" s="156">
-        <v>1.49</v>
-      </c>
-      <c r="F15" s="156">
-        <v>0.309</v>
-      </c>
-      <c r="G15" s="156">
-        <v>0.24</v>
-      </c>
-      <c r="H15" s="156">
-        <v>4</v>
-      </c>
-      <c r="I15" s="156">
-        <v>16</v>
-      </c>
-      <c r="J15" s="156">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="156" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="156">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="C16" s="156">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D16" s="156">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E16" s="156">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="F16" s="156">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="G16" s="156">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="H16" s="156">
-        <v>3</v>
-      </c>
-      <c r="I16" s="156">
-        <v>13</v>
-      </c>
-      <c r="J16" s="156">
-        <v>2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="156" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="156">
-        <v>0.49</v>
-      </c>
-      <c r="C17" s="156">
-        <v>0.628</v>
-      </c>
-      <c r="D17" s="156">
-        <v>-0.182</v>
-      </c>
-      <c r="E17" s="156">
-        <v>1.478</v>
-      </c>
-      <c r="F17" s="156">
-        <v>0.435</v>
-      </c>
-      <c r="G17" s="156">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="H17" s="156">
-        <v>2</v>
-      </c>
-      <c r="I17" s="156">
-        <v>21</v>
-      </c>
-      <c r="J17" s="156">
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="156" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="156">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="C18" s="156">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D18" s="156">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="E18" s="156">
-        <v>0.79100000000000004</v>
-      </c>
-      <c r="F18" s="156">
-        <v>5.5E-2</v>
-      </c>
-      <c r="G18" s="156">
-        <v>4.7E-2</v>
-      </c>
-      <c r="H18" s="156">
-        <v>3</v>
-      </c>
-      <c r="I18" s="156">
-        <v>12</v>
-      </c>
-      <c r="J18" s="156">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="156" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="156">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="C19" s="156">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="D19" s="156">
-        <v>-0.69099999999999995</v>
-      </c>
-      <c r="E19" s="156">
-        <v>1.466</v>
-      </c>
-      <c r="F19" s="156">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="G19" s="156">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="H19" s="156">
-        <v>7</v>
-      </c>
-      <c r="I19" s="156">
-        <v>37</v>
-      </c>
-      <c r="J19" s="156">
-        <v>1.26</v>
+      <c r="B7" s="161">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="C7" s="161">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="D7" s="161">
+        <v>-0.59699999999999998</v>
+      </c>
+      <c r="E7" s="161">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="F7" s="161">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G7" s="161">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H7" s="162">
+        <v>9386</v>
+      </c>
+      <c r="I7" s="162">
+        <v>7319</v>
+      </c>
+      <c r="J7" s="163">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5254,238 +5999,197 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC00CD67-D288-4977-A8AA-BB6D1319A1DB}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280A031D-015A-4089-AFC6-BF923DA25BEC}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="156"/>
-      <c r="B1" s="156" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="156" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="156" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="156" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="156" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="156" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="156" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="207"/>
+      <c r="B1" s="199" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="202" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="206" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="156" t="s">
+      <c r="C2" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="156" t="s">
+      <c r="D2" s="169" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+      <c r="E2" s="203" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="203" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="203" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="206" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="161">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="161">
-        <v>0.05</v>
-      </c>
-      <c r="D2" s="161">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="E2" s="161">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="F2" s="161">
-        <v>1E-3</v>
-      </c>
-      <c r="G2" s="161">
-        <v>0</v>
-      </c>
-      <c r="H2" s="162">
+      <c r="B3" s="172">
         <v>6032</v>
       </c>
-      <c r="I2" s="162">
+      <c r="C3" s="172">
         <v>3263</v>
       </c>
-      <c r="J2" s="163">
+      <c r="D3" s="201">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="156" t="s">
+      <c r="E3" s="204">
+        <v>13164</v>
+      </c>
+      <c r="F3" s="204">
+        <v>6542</v>
+      </c>
+      <c r="G3" s="205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="161">
-        <v>0.499</v>
-      </c>
-      <c r="C3" s="161">
-        <v>0.05</v>
-      </c>
-      <c r="D3" s="161">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="E3" s="161">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="F3" s="161">
-        <v>1E-3</v>
-      </c>
-      <c r="G3" s="161">
-        <v>0</v>
-      </c>
-      <c r="H3" s="162">
+      <c r="B4" s="172">
         <v>6076</v>
       </c>
-      <c r="I3" s="162">
+      <c r="C4" s="172">
         <v>4077</v>
       </c>
-      <c r="J3" s="163">
+      <c r="D4" s="201">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="156" t="s">
+      <c r="E4" s="204">
+        <v>9427</v>
+      </c>
+      <c r="F4" s="204">
+        <v>5505</v>
+      </c>
+      <c r="G4" s="205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="161">
-        <v>0</v>
-      </c>
-      <c r="C4" s="161">
-        <v>1.6E-2</v>
-      </c>
-      <c r="D4" s="161">
-        <v>-3.1E-2</v>
-      </c>
-      <c r="E4" s="161">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="F4" s="161">
-        <v>0</v>
-      </c>
-      <c r="G4" s="161">
-        <v>0</v>
-      </c>
-      <c r="H4" s="162">
+      <c r="B5" s="172">
         <v>6474</v>
       </c>
-      <c r="I4" s="162">
+      <c r="C5" s="172">
         <v>6366</v>
       </c>
-      <c r="J4" s="163">
+      <c r="D5" s="201">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="156" t="s">
+      <c r="E5" s="204">
+        <v>10027</v>
+      </c>
+      <c r="F5" s="204">
+        <v>5767</v>
+      </c>
+      <c r="G5" s="205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="206" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="161">
-        <v>0</v>
-      </c>
-      <c r="C5" s="161">
-        <v>1.6E-2</v>
-      </c>
-      <c r="D5" s="161">
-        <v>-0.03</v>
-      </c>
-      <c r="E5" s="161">
-        <v>3.1E-2</v>
-      </c>
-      <c r="F5" s="161">
-        <v>0</v>
-      </c>
-      <c r="G5" s="161">
-        <v>0</v>
-      </c>
-      <c r="H5" s="162">
+      <c r="B6" s="172">
         <v>9247</v>
       </c>
-      <c r="I5" s="162">
+      <c r="C6" s="172">
         <v>6700</v>
       </c>
-      <c r="J5" s="163">
+      <c r="D6" s="201">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="156" t="s">
+      <c r="E6" s="204">
+        <v>13047</v>
+      </c>
+      <c r="F6" s="204">
+        <v>5925</v>
+      </c>
+      <c r="G6" s="205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="161">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="C6" s="161">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="D6" s="161">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="E6" s="161">
-        <v>1.1539999999999999</v>
-      </c>
-      <c r="F6" s="161">
-        <v>0.191</v>
-      </c>
-      <c r="G6" s="161">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="H6" s="162">
+      <c r="B7" s="172">
         <v>3</v>
       </c>
-      <c r="I6" s="162">
+      <c r="C7" s="172">
         <v>49</v>
       </c>
-      <c r="J6" s="163">
+      <c r="D7" s="201">
         <v>1.83</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="156" t="s">
+      <c r="E7" s="204">
+        <v>3</v>
+      </c>
+      <c r="F7" s="204">
+        <v>46</v>
+      </c>
+      <c r="G7" s="205">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="161">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="C7" s="161">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="D7" s="161">
-        <v>-0.67900000000000005</v>
-      </c>
-      <c r="E7" s="161">
-        <v>1.927</v>
-      </c>
-      <c r="F7" s="161">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G7" s="161">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H7" s="162">
+      <c r="B8" s="172">
         <v>9467</v>
       </c>
-      <c r="I7" s="162">
+      <c r="C8" s="172">
         <v>7400</v>
       </c>
-      <c r="J7" s="163">
+      <c r="D8" s="201">
         <v>1</v>
       </c>
+      <c r="E8" s="204">
+        <v>9386</v>
+      </c>
+      <c r="F8" s="204">
+        <v>7319</v>
+      </c>
+      <c r="G8" s="205">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5495,7 +6199,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H1" sqref="H1:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
